--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>URL</t>
   </si>
@@ -205,9 +205,6 @@
     <t>BuyerEmail</t>
   </si>
   <si>
-    <t>abcde</t>
-  </si>
-  <si>
     <t>Mayuri@gmail.com</t>
   </si>
   <si>
@@ -215,18 +212,64 @@
   </si>
   <si>
     <t>xyx</t>
+  </si>
+  <si>
+    <t>Sub Entity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address </t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>xyZa</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>DepartmentName Update</t>
+  </si>
+  <si>
+    <t>Tech1</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>SSSS</t>
+  </si>
+  <si>
+    <t>XZX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,8 +304,14 @@
       <name val="Roboto"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +342,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,15 +993,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -976,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -984,7 +1042,7 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -996,11 +1054,69 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +1125,10 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>URL</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>xyZa</t>
-  </si>
-  <si>
     <t>DepartmentName</t>
   </si>
   <si>
@@ -241,28 +238,75 @@
     <t>DepartmentName Update</t>
   </si>
   <si>
-    <t>Tech1</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>SSSS</t>
-  </si>
-  <si>
-    <t>XZX</t>
+    <t>Tech22</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>ABCDDD</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Email Update</t>
+  </si>
+  <si>
+    <t>sneha12@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Borude</t>
+  </si>
+  <si>
+    <t>neha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +354,14 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,22 +394,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -993,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,7 +1126,7 @@
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1078,7 +1134,7 @@
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1086,8 +1142,8 @@
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>65</v>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1100,24 +1156,80 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>7703988712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1126,9 +1238,12 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B22" r:id="rId7" display="rutug@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId8" display="rutu@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>URL</t>
   </si>
@@ -55,18 +56,12 @@
     <t>Task Title*</t>
   </si>
   <si>
-    <t>New12816</t>
-  </si>
-  <si>
     <t>New2226</t>
   </si>
   <si>
     <t>Task Description</t>
   </si>
   <si>
-    <t>New Task  Description445</t>
-  </si>
-  <si>
     <t>Description4444</t>
   </si>
   <si>
@@ -76,9 +71,6 @@
     <t>condition message</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>wwu</t>
   </si>
   <si>
@@ -100,24 +92,15 @@
     <t>Task Title1</t>
   </si>
   <si>
-    <t>auto3</t>
-  </si>
-  <si>
     <t>Task Description1</t>
   </si>
   <si>
-    <t>aaa2</t>
-  </si>
-  <si>
     <t>Due Day1</t>
   </si>
   <si>
     <t>condition message1</t>
   </si>
   <si>
-    <t>eee</t>
-  </si>
-  <si>
     <t>Yess message1</t>
   </si>
   <si>
@@ -281,6 +264,33 @@
   </si>
   <si>
     <t>neha</t>
+  </si>
+  <si>
+    <t>mgmt@avantis.info</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>ee2</t>
+  </si>
+  <si>
+    <t>updatedTaskTitle</t>
+  </si>
+  <si>
+    <t>AutomationMgmtA</t>
+  </si>
+  <si>
+    <t>aaa23422</t>
+  </si>
+  <si>
+    <t>New14545</t>
+  </si>
+  <si>
+    <t>New Task  Description41211231</t>
+  </si>
+  <si>
+    <t>Automate11</t>
   </si>
 </sst>
 </file>
@@ -690,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -707,7 +717,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -732,26 +742,26 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -762,61 +772,61 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -824,33 +834,41 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="mailto:admin@123"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3" tooltip="mailto:performer@avantis.info"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
@@ -876,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -884,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -931,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -952,54 +970,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1025,8 +995,56 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1051,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1074,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1087,23 +1105,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>9561456772</v>
@@ -1111,110 +1129,110 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>7703988712</v>
@@ -1222,10 +1240,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1244,6 +1262,52 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1274,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1302,10 +1366,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1353,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1374,7 +1438,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1395,8 +1459,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1409,7 +1473,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:Mgmt@avantis.info"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
@@ -1422,7 +1486,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1443,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1451,12 +1515,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1538,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1496,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1509,16 +1573,16 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="mailto:auditor@abcd.com"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1552,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1565,10 +1629,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1621,10 +1685,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1671,15 +1735,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>URL</t>
   </si>
@@ -291,6 +291,36 @@
   </si>
   <si>
     <t>Automate11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sub Task</t>
+  </si>
+  <si>
+    <t>Automation SubTak1</t>
+  </si>
+  <si>
+    <t>updatedTaskTitleIn</t>
+  </si>
+  <si>
+    <t>Automation4545</t>
+  </si>
+  <si>
+    <t>NewTask12</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Automation SubTak2</t>
+  </si>
+  <si>
+    <t>QWERw</t>
+  </si>
+  <si>
+    <t>Automate2334</t>
+  </si>
+  <si>
+    <t>AutomateMgmt</t>
   </si>
 </sst>
 </file>
@@ -702,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1267,15 +1297,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1283,7 +1313,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1303,9 +1333,127 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>URL</t>
   </si>
@@ -321,18 +321,67 @@
   </si>
   <si>
     <t>AutomateMgmt</t>
+  </si>
+  <si>
+    <t>Masters-Compliance Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PQRS</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Updated Name</t>
+  </si>
+  <si>
+    <t>QRSA</t>
+  </si>
+  <si>
+    <t>Compliances</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Short Form</t>
+  </si>
+  <si>
+    <t>Detailed Description</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>Compliance31Jane2023</t>
+  </si>
+  <si>
+    <t>Compliance31jane20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,26 +483,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1004,7 +1056,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1097,15 +1149,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1277,7 +1329,70 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>URL</t>
   </si>
@@ -329,18 +330,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>PQRS</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>Updated Name</t>
   </si>
   <si>
-    <t>QRSA</t>
-  </si>
-  <si>
     <t>Compliances</t>
   </si>
   <si>
@@ -359,10 +351,28 @@
     <t>short</t>
   </si>
   <si>
-    <t>Compliance31Jane2023</t>
-  </si>
-  <si>
-    <t>Compliance31jane20</t>
+    <t>ComplianceCategory4545</t>
+  </si>
+  <si>
+    <t>Automation1221</t>
+  </si>
+  <si>
+    <t>CompCategory45</t>
+  </si>
+  <si>
+    <t>Compliance1feb20234</t>
+  </si>
+  <si>
+    <t>Compliance466</t>
+  </si>
+  <si>
+    <t>Compliance31jane2026</t>
+  </si>
+  <si>
+    <t>management.tlcg@gmail.com</t>
+  </si>
+  <si>
+    <t>k74#PW1Vfe42</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1055,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1053,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1089,11 +1099,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1151,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1338,7 +1359,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1346,25 +1367,25 @@
         <v>97</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>108</v>
@@ -1372,26 +1393,26 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1574,6 +1595,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>URL</t>
   </si>
@@ -373,18 +373,43 @@
   </si>
   <si>
     <t>k74#PW1Vfe42</t>
+  </si>
+  <si>
+    <t>Manage Compliances</t>
+  </si>
+  <si>
+    <t>Shehal Patil</t>
+  </si>
+  <si>
+    <t>Widget Master</t>
+  </si>
+  <si>
+    <t>PQRS</t>
+  </si>
+  <si>
+    <t>updated Name</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,29 +518,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1413,6 +1439,40 @@
       </c>
       <c r="B31" s="15" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1496,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1599,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>URL</t>
   </si>
@@ -384,25 +384,38 @@
     <t>Widget Master</t>
   </si>
   <si>
-    <t>PQRS</t>
-  </si>
-  <si>
     <t>updated Name</t>
   </si>
   <si>
-    <t>ABCDE</t>
+    <t>ABCDA</t>
+  </si>
+  <si>
+    <t>ABCDFD</t>
+  </si>
+  <si>
+    <t>OldPass</t>
+  </si>
+  <si>
+    <t>PSK2&amp;r12vV8u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,6 +499,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -518,29 +537,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1198,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,12 +1485,12 @@
         <v>55</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
         <v>118</v>
@@ -1657,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,11 +1710,20 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,7 +1701,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1722,8 +1722,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2000,7 +2000,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:auditor@abcd.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -2056,7 +2056,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:Shivrajapprover@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2112,7 +2112,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:departmenthead@abcd.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,12 +463,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF598FDE"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -541,27 +535,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -861,7 +854,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -872,7 +865,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -942,8 +935,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" s="5" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1019,7 +1012,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1113,7 +1106,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1219,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1278,7 +1271,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1286,36 +1279,36 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1323,7 +1316,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1331,20 +1324,20 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1357,31 +1350,31 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B21">
@@ -1389,107 +1382,107 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B36" t="s">
@@ -1599,7 +1592,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1714,10 +1707,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1756,7 +1749,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1819,7 +1812,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1904,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1925,7 +1918,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1944,7 +1937,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:fe@bitaconsulting.co.in"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
     <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="122">
   <si>
     <t>URL</t>
   </si>
@@ -397,6 +398,9 @@
   </si>
   <si>
     <t>PSK2&amp;r12vV8u</t>
+  </si>
+  <si>
+    <t>Lbkw9BJnNF</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1217,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,7 +1678,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,7 +1690,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1712,6 +1716,54 @@
       </c>
       <c r="B10" s="18" t="s">
         <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="6" activeTab="16"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
     <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1746,7 +1746,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1769,9 +1769,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,16 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
     <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>URL</t>
   </si>
@@ -401,6 +404,18 @@
   </si>
   <si>
     <t>Lbkw9BJnNF</t>
+  </si>
+  <si>
+    <t>reviewer@entity.com</t>
+  </si>
+  <si>
+    <t>officer1@entity.com</t>
+  </si>
+  <si>
+    <t>mgmt@entity.com</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/Login.aspx</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1125,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1216,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1678,7 +1693,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1733,7 +1748,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,6 +1788,95 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1844,6 +1948,49 @@
     <hyperlink ref="B2" r:id="rId3" tooltip="mailto:reviewer@avantis.info"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2003,7 +2150,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2115,7 +2262,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2144,7 +2291,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2160,6 +2307,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2170,7 +2318,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,7 +1796,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1817,7 +1817,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1825,13 +1825,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1842,7 +1844,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,7 +1865,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1871,11 +1873,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1956,7 +1962,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1977,7 +1983,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1985,11 +1991,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2149,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2008,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2159,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2272,7 +2272,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
     <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="127">
   <si>
     <t>URL</t>
   </si>
@@ -416,6 +417,9 @@
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/Login.aspx</t>
+  </si>
+  <si>
+    <t>richashah98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -854,7 +858,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -884,7 +888,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1017,7 +1021,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="mailto:admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
@@ -1891,7 +1895,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1912,7 +1916,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1949,9 +1953,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="mailto:admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B2" r:id="rId3" tooltip="mailto:reviewer@avantis.info"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1961,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1975,7 +1979,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1999,7 +2003,51 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2008,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1894,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2320,7 +2320,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
   <si>
     <t>URL</t>
   </si>
@@ -420,18 +421,40 @@
   </si>
   <si>
     <t>richashah98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept Login </t>
+  </si>
+  <si>
+    <t>companyadmin@gmail.com</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Common/Dashboard.aspx</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Common/ComplianceDashboard.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,30 +577,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -872,15 +895,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -888,7 +911,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -958,8 +981,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1048,7 +1071,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1056,7 +1079,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1095,7 +1118,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1103,7 +1126,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1142,7 +1165,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1150,7 +1173,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1158,12 +1181,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1185,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1201,7 +1224,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1217,8 +1240,23 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1264,12 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1246,26 +1288,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1294,52 +1336,52 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1347,20 +1389,20 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1368,36 +1410,36 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B21">
@@ -1405,107 +1447,107 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B36" t="s">
@@ -1546,7 +1588,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1554,7 +1596,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1615,7 +1657,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1709,7 +1751,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1717,7 +1759,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1730,10 +1772,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1765,7 +1807,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1773,7 +1815,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1781,7 +1823,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1813,7 +1855,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1821,7 +1863,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1829,7 +1871,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1869,7 +1911,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1877,7 +1919,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1892,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1908,7 +1950,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1916,7 +1958,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1924,7 +1966,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1949,6 +1991,11 @@
       </c>
       <c r="B7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2026,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1987,7 +2034,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1995,7 +2042,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2052,6 +2099,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
@@ -2070,7 +2172,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2078,7 +2180,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2086,12 +2188,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2121,7 +2223,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2129,7 +2231,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2137,7 +2239,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2168,7 +2270,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2176,7 +2278,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2184,12 +2286,12 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2221,7 +2323,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2229,7 +2331,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2237,15 +2339,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2277,7 +2379,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2285,7 +2387,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2293,7 +2395,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2333,7 +2435,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2341,7 +2443,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2349,7 +2451,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2389,7 +2491,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2397,7 +2499,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2405,7 +2507,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2413,7 +2515,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>URL</t>
   </si>
@@ -436,18 +437,125 @@
   </si>
   <si>
     <t>https://test.avantisregtec.in/DIYProduction/Common/ComplianceDashboard.aspx</t>
+  </si>
+  <si>
+    <t>admin@2023</t>
+  </si>
+  <si>
+    <t>researchreviewer@avantis.info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parliamentary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Affairs</t>
+    </r>
+  </si>
+  <si>
+    <t>Ministry Name</t>
+  </si>
+  <si>
+    <t>Ministry Master</t>
+  </si>
+  <si>
+    <t>Dublicate Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ministry as on 1913</t>
+  </si>
+  <si>
+    <t>update Ministry Name</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Regulator Master</t>
+  </si>
+  <si>
+    <t>Regulator Name</t>
+  </si>
+  <si>
+    <t>Small Industries Development Bank of India</t>
+  </si>
+  <si>
+    <t>Bureau of Indian Standards</t>
+  </si>
+  <si>
+    <t>update Regulator Name</t>
+  </si>
+  <si>
+    <t>Project Exports Promotion Council of India</t>
+  </si>
+  <si>
+    <t>Act Department Master</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Chhattisgarh Police1</t>
+  </si>
+  <si>
+    <t>Chennai Municipal Corporation</t>
+  </si>
+  <si>
+    <t>update Department name</t>
+  </si>
+  <si>
+    <t>Chief Electrical Inspectorate, Govt. of Gujarat1</t>
+  </si>
+  <si>
+    <t>e2368</t>
+  </si>
+  <si>
+    <t>p643</t>
+  </si>
+  <si>
+    <t>r2613</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,6 +653,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -577,31 +725,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1149,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1182,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1193,6 +1350,16 @@
     <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1201,8 +1368,10 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
     <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1211,7 +1380,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2103,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2114,7 +2283,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2122,7 +2291,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2130,10 +2299,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2149,8 +2318,160 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2158,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2294,7 +2294,7 @@
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2319,6 +2319,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2479,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,17 @@
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
     <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="28" r:id="rId26"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="164">
   <si>
     <t>URL</t>
   </si>
@@ -530,25 +534,88 @@
     <t>Chief Electrical Inspectorate, Govt. of Gujarat1</t>
   </si>
   <si>
-    <t>e2368</t>
-  </si>
-  <si>
-    <t>p643</t>
-  </si>
-  <si>
-    <t>r2613</t>
+    <t>rahul.subhashraikwar@tlregtech.in</t>
+  </si>
+  <si>
+    <t>officer@entity.com</t>
+  </si>
+  <si>
+    <t>rahul@avantis.info</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Indian Independence Act, 1947</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Payment of Bonus (Amendment) Act, 1985 (30 of 1985).</t>
+  </si>
+  <si>
+    <t>Act Applicability Rules</t>
+  </si>
+  <si>
+    <t>ShortForm</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>auditor123@bitaconsulting.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,6 +760,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -725,40 +805,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1309,7 +1398,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1380,7 +1469,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1963,7 +2052,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2011,7 +2100,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2056,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2092,10 +2181,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2272,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2330,13 +2431,194 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="32">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2351,8 +2633,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>133</v>
+      <c r="B2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2363,116 +2645,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="24"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2629,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2654,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2673,13 +2951,30 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2744,7 +3039,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
